--- a/Demo/Assets/Scripts/BaseScene/VillainDB.xlsx
+++ b/Demo/Assets/Scripts/BaseScene/VillainDB.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghdwl\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghdwl\Documents\GitHub\TooManyVillan\Demo\Assets\Scripts\BaseScene\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F1A874-EDFA-4D5A-A1BF-AE7E99E4465C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1EE64F-3FB3-422D-8ACE-6BFEB2C10661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39885" yWindow="4080" windowWidth="14400" windowHeight="9030" xr2:uid="{F1FC4E6C-B150-4CEA-BA4E-8C05134CA3E1}"/>
+    <workbookView xWindow="32610" yWindow="2595" windowWidth="16005" windowHeight="9030" activeTab="1" xr2:uid="{F1FC4E6C-B150-4CEA-BA4E-8C05134CA3E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Villain" sheetId="1" r:id="rId1"/>
+    <sheet name="Dialog" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,6 +47,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>demon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Range_Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Range_Escape</t>
+  </si>
+  <si>
+    <t>Vil_Synergy_1</t>
+  </si>
+  <si>
+    <t>Vil_Name</t>
+  </si>
+  <si>
+    <t>Vil_Grade</t>
+  </si>
+  <si>
+    <t>Vil_Synergy_2</t>
+  </si>
+  <si>
+    <t>Vil_AttackType</t>
+  </si>
+  <si>
+    <t>Vil_Cooltime</t>
+  </si>
+  <si>
+    <t>Vil_Hp_Max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vil_Hp_Min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vil_Str_Min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vil_Str_Max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>test_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -54,11 +120,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>weight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vilName</t>
+    <t>test_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>branch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>side</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅎㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅂㅂ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -423,56 +505,305 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B3B39E-124D-4EA1-9F25-AB69EAF420BD}">
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.125" customWidth="1"/>
+    <col min="4" max="4" width="6.25" customWidth="1"/>
+    <col min="5" max="6" width="13.25" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="12.25" customWidth="1"/>
+    <col min="9" max="9" width="13.125" customWidth="1"/>
+    <col min="10" max="10" width="12.75" customWidth="1"/>
+    <col min="11" max="11" width="10.875" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
+    <col min="13" max="13" width="9.875" customWidth="1"/>
+    <col min="14" max="14" width="10.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>60</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99852706-2E26-498A-9507-6A6A5A9F0EA3}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Demo/Assets/Scripts/BaseScene/VillainDB.xlsx
+++ b/Demo/Assets/Scripts/BaseScene/VillainDB.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghdwl\Documents\GitHub\TooManyVillan\Demo\Assets\Scripts\BaseScene\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1EE64F-3FB3-422D-8ACE-6BFEB2C10661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D31863-6343-4425-BDE4-E801DA8E0120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32610" yWindow="2595" windowWidth="16005" windowHeight="9030" activeTab="1" xr2:uid="{F1FC4E6C-B150-4CEA-BA4E-8C05134CA3E1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F1FC4E6C-B150-4CEA-BA4E-8C05134CA3E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Villain" sheetId="1" r:id="rId1"/>
-    <sheet name="Dialog" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,19 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>weight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>common</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,92 +51,116 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>demon</t>
+    <t>Range_Escape</t>
+  </si>
+  <si>
+    <t>Vil_Synergy_1</t>
+  </si>
+  <si>
+    <t>Vil_Name</t>
+  </si>
+  <si>
+    <t>Vil_Grade</t>
+  </si>
+  <si>
+    <t>Vil_Synergy_2</t>
+  </si>
+  <si>
+    <t>Vil_AttackType</t>
+  </si>
+  <si>
+    <t>Vil_Cooltime</t>
+  </si>
+  <si>
+    <t>Grade</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Rarity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Salary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
     <t>Range_Normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Range_Escape</t>
-  </si>
-  <si>
-    <t>Vil_Synergy_1</t>
-  </si>
-  <si>
-    <t>Vil_Name</t>
-  </si>
-  <si>
-    <t>Vil_Grade</t>
-  </si>
-  <si>
-    <t>Vil_Synergy_2</t>
-  </si>
-  <si>
-    <t>Vil_AttackType</t>
-  </si>
-  <si>
-    <t>Vil_Cooltime</t>
+  </si>
+  <si>
+    <t>Vil_Skill</t>
+  </si>
+  <si>
+    <t>Vil_Hp_Min</t>
   </si>
   <si>
     <t>Vil_Hp_Max</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vil_Hp_Min</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Vil_Str_Min</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Vil_Str_Max</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>branch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>side</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅇㅇ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅎㅇ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅂㅂ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vil_Demon</t>
+  </si>
+  <si>
+    <t>감자</t>
+  </si>
+  <si>
+    <t>고구마</t>
+  </si>
+  <si>
+    <t>우엉</t>
+  </si>
+  <si>
+    <t>연근</t>
+  </si>
+  <si>
+    <t>치커리</t>
+  </si>
+  <si>
+    <t>케일</t>
+  </si>
+  <si>
+    <t>로메인</t>
+  </si>
+  <si>
+    <t>샐러리</t>
+  </si>
+  <si>
+    <t>신도A</t>
+  </si>
+  <si>
+    <t>신도B</t>
+  </si>
+  <si>
+    <t>신관</t>
+  </si>
+  <si>
+    <t>교주</t>
+  </si>
+  <si>
+    <t>박쥐</t>
+  </si>
+  <si>
+    <t>김쥐</t>
+  </si>
+  <si>
+    <t>이쥐</t>
+  </si>
+  <si>
+    <t>MZ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,13 +176,27 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -187,8 +213,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -505,16 +537,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B3B39E-124D-4EA1-9F25-AB69EAF420BD}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.125" customWidth="1"/>
-    <col min="4" max="4" width="6.25" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
     <col min="5" max="6" width="13.25" customWidth="1"/>
     <col min="7" max="7" width="12.625" customWidth="1"/>
     <col min="8" max="8" width="12.25" customWidth="1"/>
@@ -526,223 +558,742 @@
     <col min="14" max="14" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
         <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="s">
-        <v>14</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
       </c>
       <c r="L1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>250</v>
+      </c>
+      <c r="L2">
+        <v>300</v>
+      </c>
+      <c r="M2">
+        <v>10</v>
+      </c>
+      <c r="N2">
+        <v>30</v>
+      </c>
+      <c r="O2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>200</v>
+      </c>
+      <c r="L3">
+        <v>300</v>
+      </c>
+      <c r="M3">
+        <v>20</v>
+      </c>
+      <c r="N3">
+        <v>50</v>
+      </c>
+      <c r="O3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>350</v>
+      </c>
+      <c r="L4">
+        <v>450</v>
+      </c>
+      <c r="M4">
+        <v>200</v>
+      </c>
+      <c r="N4">
+        <v>300</v>
+      </c>
+      <c r="O4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <v>550</v>
+      </c>
+      <c r="L5">
+        <v>600</v>
+      </c>
+      <c r="M5">
+        <v>400</v>
+      </c>
+      <c r="N5">
+        <v>500</v>
+      </c>
+      <c r="O5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="K6">
+        <v>200</v>
+      </c>
+      <c r="L6">
+        <v>300</v>
+      </c>
+      <c r="M6">
+        <v>40</v>
+      </c>
+      <c r="N6">
+        <v>100</v>
+      </c>
+      <c r="O6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7">
+        <v>10</v>
+      </c>
+      <c r="K7">
+        <v>300</v>
+      </c>
+      <c r="L7">
+        <v>400</v>
+      </c>
+      <c r="M7">
+        <v>200</v>
+      </c>
+      <c r="N7">
+        <v>300</v>
+      </c>
+      <c r="O7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8">
         <v>15</v>
       </c>
-      <c r="M1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="K8">
+        <v>350</v>
+      </c>
+      <c r="L8">
+        <v>450</v>
+      </c>
+      <c r="M8">
+        <v>250</v>
+      </c>
+      <c r="N8">
+        <v>300</v>
+      </c>
+      <c r="O8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>300</v>
+      </c>
+      <c r="L9">
+        <v>450</v>
+      </c>
+      <c r="M9">
+        <v>200</v>
+      </c>
+      <c r="N9">
+        <v>250</v>
+      </c>
+      <c r="O9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>250</v>
+      </c>
+      <c r="L10">
+        <v>300</v>
+      </c>
+      <c r="M10">
+        <v>100</v>
+      </c>
+      <c r="N10">
+        <v>100</v>
+      </c>
+      <c r="O10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="K11">
+        <v>200</v>
+      </c>
+      <c r="L11">
+        <v>250</v>
+      </c>
+      <c r="M11">
+        <v>100</v>
+      </c>
+      <c r="N11">
+        <v>300</v>
+      </c>
+      <c r="O11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>300</v>
+      </c>
+      <c r="L12">
+        <v>450</v>
+      </c>
+      <c r="M12">
+        <v>200</v>
+      </c>
+      <c r="N12">
+        <v>600</v>
+      </c>
+      <c r="O12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13">
         <v>3</v>
       </c>
-      <c r="D2">
-        <v>60</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
         <v>4</v>
       </c>
-      <c r="D3">
-        <v>30</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13">
+        <v>10</v>
+      </c>
+      <c r="K13">
+        <v>500</v>
+      </c>
+      <c r="L13">
+        <v>650</v>
+      </c>
+      <c r="M13">
+        <v>400</v>
+      </c>
+      <c r="N13">
+        <v>600</v>
+      </c>
+      <c r="O13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>6</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14">
+        <v>10</v>
+      </c>
+      <c r="K14">
+        <v>250</v>
+      </c>
+      <c r="L14">
+        <v>300</v>
+      </c>
+      <c r="M14">
+        <v>100</v>
+      </c>
+      <c r="N14">
+        <v>100</v>
+      </c>
+      <c r="O14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>8</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="G15">
         <v>6</v>
       </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15">
+        <v>10</v>
+      </c>
+      <c r="K15">
+        <v>200</v>
+      </c>
+      <c r="L15">
+        <v>250</v>
+      </c>
+      <c r="M15">
+        <v>100</v>
+      </c>
+      <c r="N15">
+        <v>300</v>
+      </c>
+      <c r="O15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>6</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16">
+        <v>10</v>
+      </c>
+      <c r="K16">
+        <v>300</v>
+      </c>
+      <c r="L16">
+        <v>450</v>
+      </c>
+      <c r="M16">
+        <v>200</v>
+      </c>
+      <c r="N16">
+        <v>600</v>
+      </c>
+      <c r="O16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>6</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17">
+        <v>10</v>
+      </c>
+      <c r="K17">
+        <v>500</v>
+      </c>
+      <c r="L17">
+        <v>650</v>
+      </c>
+      <c r="M17">
+        <v>400</v>
+      </c>
+      <c r="N17">
+        <v>600</v>
+      </c>
+      <c r="O17" t="b">
         <v>0</v>
       </c>
     </row>
@@ -753,57 +1304,57 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99852706-2E26-498A-9507-6A6A5A9F0EA3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F67701A-6814-4FDA-A4C8-7D14B3A8CF9A}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
+        <v>89</v>
+      </c>
+      <c r="C2">
+        <v>10000</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>50000</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
+      <c r="A4" t="s">
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>100000</v>
       </c>
     </row>
   </sheetData>
